--- a/outputs-HGR-r202/g__Akkermansia.xlsx
+++ b/outputs-HGR-r202/g__Akkermansia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>s__Akkermansia sp001580195</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s__Akkermansia sp001580195</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>s__Akkermansia sp001580195</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>s__Akkermansia sp001580195</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>s__Akkermansia sp001580195</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__Akkermansia sp001580195</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>s__Akkermansia sp001580195</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__Akkermansia sp001580195</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +630,11 @@
           <t>s__Akkermansia sp001580195</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s__Akkermansia sp001580195</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -632,6 +662,11 @@
           <t>s__Akkermansia sp004167605</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>s__Akkermansia sp004167605</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +694,11 @@
           <t>s__Akkermansia sp004167605</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>s__Akkermansia sp004167605</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -686,6 +726,11 @@
           <t>s__Akkermansia sp004167605</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>s__Akkermansia sp004167605</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -713,6 +758,11 @@
           <t>s__Akkermansia sp004167605</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>s__Akkermansia sp004167605</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -740,6 +790,11 @@
           <t>s__Akkermansia sp004167605</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>s__Akkermansia sp004167605</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -767,6 +822,11 @@
           <t>s__Akkermansia sp004167605</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>s__Akkermansia sp004167605</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -794,6 +854,11 @@
           <t>s__Akkermansia sp004167605</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>s__Akkermansia sp004167605</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -817,6 +882,11 @@
         <v>0.5421877816182123</v>
       </c>
       <c r="G14" t="inlineStr">
+        <is>
+          <t>s__Akkermansia sp001580195</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>s__Akkermansia sp001580195</t>
         </is>
